--- a/FOR MS CLARIANNE/PRODUCT LIST.xlsx
+++ b/FOR MS CLARIANNE/PRODUCT LIST.xlsx
@@ -399,7 +399,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +421,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,19 +515,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,8 +523,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -554,6 +545,42 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,9 +888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -879,10 +906,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -893,50 +920,50 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="21" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="39"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -966,33 +993,33 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="46">
         <v>10000</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="46">
         <v>12000</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42">
         <v>37</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="42">
         <v>5</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="42">
         <v>10.5</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="41" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1048,65 +1075,65 @@
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="154.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:10" s="37" customFormat="1" ht="154.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="39">
         <v>4400</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="39">
         <v>5500</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="38">
         <v>12.3</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="38">
         <v>12.3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="38">
         <v>16.5</v>
       </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" s="37" customFormat="1" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="39">
         <v>1350</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="39">
         <v>1850</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="38">
         <v>12</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="38">
         <v>3</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="38">
         <v>14.9</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -1130,63 +1157,63 @@
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="29">
         <v>18</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="29">
         <v>20</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="37"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -1238,215 +1265,215 @@
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26" t="s">
+    <row r="16" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="20">
         <v>85</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="20">
         <v>100</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" ht="84.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" s="37" customFormat="1" ht="84.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="39">
         <v>720</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="39">
         <v>900</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" ht="98" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" s="37" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="35">
         <v>15000</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="35">
         <v>18500</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="34">
         <v>32</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="34">
         <v>20.5</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="34">
         <v>20.5</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35" t="s">
+    <row r="19" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="29">
         <v>20</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="29">
         <v>20</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="37"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="46">
         <v>495</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="43">
         <v>280</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="43">
         <v>350</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="45">
         <v>11.5</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="45">
         <v>6.9</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="42">
         <v>11.5</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="46">
         <v>280</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="46">
         <v>350</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="42">
         <v>11.5</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="42">
         <v>6.9</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="42">
         <v>11.5</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:10" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A23" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="46">
         <v>300</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="46">
         <v>380</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="42">
         <v>14</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="42">
         <v>2.5</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="42">
         <v>7</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="41" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1482,57 +1509,57 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:10" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="39">
         <v>6000</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="39">
         <v>7500</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="38">
         <v>10</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="38">
         <v>7</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="38">
         <v>27</v>
       </c>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30" t="s">
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="24">
         <v>750</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="33"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -1622,7 +1649,7 @@
       <c r="E30" s="11">
         <v>4400</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G30" s="5"/>
@@ -1646,7 +1673,7 @@
       <c r="E31" s="11">
         <v>4400</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G31" s="5"/>
@@ -1676,149 +1703,149 @@
       <c r="I32" s="5"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="46">
         <v>4500</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="46">
         <v>6000</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5">
+      <c r="F33" s="42"/>
+      <c r="G33" s="42">
         <v>19.5</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="42">
         <v>5</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="42">
         <v>16</v>
       </c>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="46">
         <v>150</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="46">
         <v>180</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="42">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="42">
         <v>2.6</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="42">
         <v>6.5</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="56.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:10" s="37" customFormat="1" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="39">
         <v>560</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="39">
         <v>700</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="42">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="42">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="42">
         <v>11.2</v>
       </c>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="46">
         <v>320</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="46">
         <v>400</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="42">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="42">
         <v>2.6</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="42">
         <v>6.5</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="35" t="s">
+    <row r="37" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="29">
         <v>20</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="29">
         <v>20</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="37"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="30"/>
     </row>
   </sheetData>
   <sortState ref="B4:E32">
